--- a/Code/Results/Cases/Case_2_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.13253020053355</v>
+        <v>18.08032186512941</v>
       </c>
       <c r="C2">
-        <v>6.806783071266404</v>
+        <v>4.707088164900111</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.402685091721494</v>
+        <v>11.26418622786683</v>
       </c>
       <c r="F2">
-        <v>35.15385529219405</v>
+        <v>47.14247703679082</v>
       </c>
       <c r="G2">
-        <v>2.142537289196239</v>
+        <v>3.744802456999608</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.43517444459806</v>
+        <v>33.88940456219572</v>
       </c>
       <c r="J2">
-        <v>6.303528616333629</v>
+        <v>9.954836322397528</v>
       </c>
       <c r="K2">
-        <v>13.28867370468201</v>
+        <v>15.70608465718566</v>
       </c>
       <c r="L2">
-        <v>7.559528168084369</v>
+        <v>11.89756668590153</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.66704463523236</v>
+        <v>23.43051152018387</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.26304843621575</v>
+        <v>17.93516884377031</v>
       </c>
       <c r="C3">
-        <v>6.316899890472043</v>
+        <v>4.55538783772402</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.272191591349821</v>
+        <v>11.2693233596374</v>
       </c>
       <c r="F3">
-        <v>34.33904031020212</v>
+        <v>47.1093776534086</v>
       </c>
       <c r="G3">
-        <v>2.150219216107318</v>
+        <v>3.747594357931122</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.32369041073185</v>
+        <v>33.94169114173044</v>
       </c>
       <c r="J3">
-        <v>6.361966457965202</v>
+        <v>9.969337384346815</v>
       </c>
       <c r="K3">
-        <v>12.63754830338793</v>
+        <v>15.61164198458322</v>
       </c>
       <c r="L3">
-        <v>7.356449626322475</v>
+        <v>11.89444654952093</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.86572490968801</v>
+        <v>23.4887549136079</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.71337524096346</v>
+        <v>17.84988857762897</v>
       </c>
       <c r="C4">
-        <v>6.000984880759979</v>
+        <v>4.461241061494007</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.193107931273818</v>
+        <v>11.27386134642715</v>
       </c>
       <c r="F4">
-        <v>33.85486826061159</v>
+        <v>47.09867620329401</v>
       </c>
       <c r="G4">
-        <v>2.155067243124779</v>
+        <v>3.749398697020055</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.27037693998674</v>
+        <v>33.97935404845763</v>
       </c>
       <c r="J4">
-        <v>6.398372169097501</v>
+        <v>9.978629083806206</v>
       </c>
       <c r="K4">
-        <v>12.22922290780443</v>
+        <v>15.55707617801378</v>
       </c>
       <c r="L4">
-        <v>7.232745907518144</v>
+        <v>11.89441014164147</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.99168654816213</v>
+        <v>23.52645583803323</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.48565541904317</v>
+        <v>17.8161372069183</v>
       </c>
       <c r="C5">
-        <v>5.868389878084222</v>
+        <v>4.422691873472539</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.161178451304633</v>
+        <v>11.27605955736496</v>
       </c>
       <c r="F5">
-        <v>33.66174034010054</v>
+        <v>47.0967383937513</v>
       </c>
       <c r="G5">
-        <v>2.157077069912795</v>
+        <v>3.750156713615337</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.25232463483877</v>
+        <v>33.99609785204241</v>
       </c>
       <c r="J5">
-        <v>6.413351722992185</v>
+        <v>9.982513446563143</v>
       </c>
       <c r="K5">
-        <v>12.06089327583076</v>
+        <v>15.53571996263454</v>
       </c>
       <c r="L5">
-        <v>7.182645790340627</v>
+        <v>11.89486928576165</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.04401489264154</v>
+        <v>23.54230767187784</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.44762618919425</v>
+        <v>17.81059424433713</v>
       </c>
       <c r="C6">
-        <v>5.846138098565461</v>
+        <v>4.416281805820096</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.15589563627486</v>
+        <v>11.27644567146014</v>
       </c>
       <c r="F6">
-        <v>33.62992723577231</v>
+        <v>47.09656305005133</v>
       </c>
       <c r="G6">
-        <v>2.157412900593974</v>
+        <v>3.750283957027867</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.24954501761409</v>
+        <v>33.99896239399104</v>
       </c>
       <c r="J6">
-        <v>6.415848096099475</v>
+        <v>9.983164366623075</v>
       </c>
       <c r="K6">
-        <v>12.03283237012734</v>
+        <v>15.5322274502718</v>
       </c>
       <c r="L6">
-        <v>7.174347289791812</v>
+        <v>11.8949741906536</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.05276425575799</v>
+        <v>23.54496937765151</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.71031883803106</v>
+        <v>17.84942929773632</v>
       </c>
       <c r="C7">
-        <v>5.999212344663315</v>
+        <v>4.460721823461134</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.19267606532221</v>
+        <v>11.27388957814028</v>
       </c>
       <c r="F7">
-        <v>33.85224660549712</v>
+        <v>47.09864025455467</v>
       </c>
       <c r="G7">
-        <v>2.155094208268793</v>
+        <v>3.749408827746469</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.27011878343145</v>
+        <v>33.9795742122263</v>
       </c>
       <c r="J7">
-        <v>6.398573590507523</v>
+        <v>9.97868107274256</v>
       </c>
       <c r="K7">
-        <v>12.22696027884623</v>
+        <v>15.55678457407014</v>
       </c>
       <c r="L7">
-        <v>7.232068900509797</v>
+        <v>11.89441441298232</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.99238822563293</v>
+        <v>23.52666764290874</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.83614902853655</v>
+        <v>18.02949639445668</v>
       </c>
       <c r="C8">
-        <v>6.640977203173941</v>
+        <v>4.655029513673917</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.357496687047376</v>
+        <v>11.26567091934201</v>
       </c>
       <c r="F8">
-        <v>34.86963327617546</v>
+        <v>47.12907001084476</v>
       </c>
       <c r="G8">
-        <v>2.145159513255274</v>
+        <v>3.745746450624315</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.393512808466</v>
+        <v>33.90627816035636</v>
       </c>
       <c r="J8">
-        <v>6.323576576068862</v>
+        <v>9.959755977528728</v>
       </c>
       <c r="K8">
-        <v>13.0660522910129</v>
+        <v>15.67282245660197</v>
       </c>
       <c r="L8">
-        <v>7.489338057911636</v>
+        <v>11.89610169261604</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.73472459190908</v>
+        <v>23.45019181103023</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.90993964407134</v>
+        <v>18.41151577947544</v>
       </c>
       <c r="C9">
-        <v>7.782047670812613</v>
+        <v>5.025347674606017</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.687411480633691</v>
+        <v>11.26048869337326</v>
       </c>
       <c r="F9">
-        <v>36.98740118372331</v>
+        <v>47.26486725504513</v>
       </c>
       <c r="G9">
-        <v>2.12666119292406</v>
+        <v>3.739275924723443</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.76155501794141</v>
+        <v>33.80673107603165</v>
       </c>
       <c r="J9">
-        <v>6.180083155833322</v>
+        <v>9.925705846798108</v>
       </c>
       <c r="K9">
-        <v>14.63634550393425</v>
+        <v>15.92661929441236</v>
       </c>
       <c r="L9">
-        <v>7.999124054913034</v>
+        <v>11.9142542870765</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.26105798425534</v>
+        <v>23.31557469636355</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.34363604436659</v>
+        <v>18.70756918467477</v>
       </c>
       <c r="C10">
-        <v>8.552632534244069</v>
+        <v>5.287531832254872</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.931918485626236</v>
+        <v>11.26328419725585</v>
       </c>
       <c r="F10">
-        <v>38.61155783598754</v>
+        <v>47.41066528976499</v>
       </c>
       <c r="G10">
-        <v>2.113582740206566</v>
+        <v>3.734950776724386</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.11699278802021</v>
+        <v>33.76063165769536</v>
       </c>
       <c r="J10">
-        <v>6.07594596274641</v>
+        <v>9.902532174420783</v>
       </c>
       <c r="K10">
-        <v>15.73665176777519</v>
+        <v>16.12778387662159</v>
       </c>
       <c r="L10">
-        <v>8.373782090685724</v>
+        <v>11.93653901061562</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.93261195936962</v>
+        <v>23.22598027287936</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.97538538419231</v>
+        <v>18.84509145547098</v>
       </c>
       <c r="C11">
-        <v>8.889393719006744</v>
+        <v>5.404051502486851</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.043235065954121</v>
+        <v>11.2659748164478</v>
       </c>
       <c r="F11">
-        <v>39.36411456357211</v>
+        <v>47.4868744691413</v>
       </c>
       <c r="G11">
-        <v>2.107723043100703</v>
+        <v>3.733075202861867</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.29893077425294</v>
+        <v>33.74554768871757</v>
       </c>
       <c r="J11">
-        <v>6.028630838547726</v>
+        <v>9.892384966339625</v>
       </c>
       <c r="K11">
-        <v>16.2748408388037</v>
+        <v>16.22219152416781</v>
       </c>
       <c r="L11">
-        <v>8.543698942954839</v>
+        <v>11.94859429184375</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.78756111060618</v>
+        <v>23.1872323465703</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.21163633462895</v>
+        <v>18.89753368692933</v>
       </c>
       <c r="C12">
-        <v>9.015016722957796</v>
+        <v>5.447735259319284</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.085372541043862</v>
+        <v>11.26719631706322</v>
       </c>
       <c r="F12">
-        <v>39.65099063401265</v>
+        <v>47.51714209235722</v>
       </c>
       <c r="G12">
-        <v>2.105515111638223</v>
+        <v>3.732378115233296</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.37088563224335</v>
+        <v>33.74068317690902</v>
       </c>
       <c r="J12">
-        <v>6.010701849512183</v>
+        <v>9.888598846179571</v>
       </c>
       <c r="K12">
-        <v>16.49658741687643</v>
+        <v>16.25833131838744</v>
       </c>
       <c r="L12">
-        <v>8.607929701990811</v>
+        <v>11.9534325628424</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.73327709293583</v>
+        <v>23.17284770008585</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.16088824594568</v>
+        <v>18.88622375733181</v>
       </c>
       <c r="C13">
-        <v>8.988044760460657</v>
+        <v>5.438347393268539</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.07629860160038</v>
+        <v>11.2669242568435</v>
       </c>
       <c r="F13">
-        <v>39.58912317301818</v>
+        <v>47.51056097541106</v>
       </c>
       <c r="G13">
-        <v>2.105990171622182</v>
+        <v>3.732527661750904</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.35525043476991</v>
+        <v>33.74169313366737</v>
       </c>
       <c r="J13">
-        <v>6.014564042196803</v>
+        <v>9.889411751523241</v>
       </c>
       <c r="K13">
-        <v>16.44900265494783</v>
+        <v>16.25053107192362</v>
       </c>
       <c r="L13">
-        <v>8.594102033401972</v>
+        <v>11.9523784474268</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.74493918966254</v>
+        <v>23.17593287495378</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.9948817066856</v>
+        <v>18.84939883549428</v>
       </c>
       <c r="C14">
-        <v>8.899766415572842</v>
+        <v>5.407654441276998</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.046702208533562</v>
+        <v>11.26607125760911</v>
       </c>
       <c r="F14">
-        <v>39.38767829973808</v>
+        <v>47.48933644660693</v>
       </c>
       <c r="G14">
-        <v>2.107541186099169</v>
+        <v>3.733017589878017</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.30478838183006</v>
+        <v>33.74513049369992</v>
       </c>
       <c r="J14">
-        <v>6.027156167688743</v>
+        <v>9.892072351396781</v>
       </c>
       <c r="K14">
-        <v>16.29316187031363</v>
+        <v>16.2251571137456</v>
       </c>
       <c r="L14">
-        <v>8.548985710434696</v>
+        <v>11.94898687956116</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.78308212182289</v>
+        <v>23.18604313707732</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.89280934480784</v>
+        <v>18.82688880584019</v>
       </c>
       <c r="C15">
-        <v>8.845448300003643</v>
+        <v>5.388795622409759</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.028570724117741</v>
+        <v>11.26557511479194</v>
       </c>
       <c r="F15">
-        <v>39.26453307112453</v>
+        <v>47.47651888535918</v>
       </c>
       <c r="G15">
-        <v>2.108492601682644</v>
+        <v>3.733319395588709</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.27428171052939</v>
+        <v>33.74734636316845</v>
       </c>
       <c r="J15">
-        <v>6.034867046111893</v>
+        <v>9.893709381549559</v>
       </c>
       <c r="K15">
-        <v>16.19719851721286</v>
+        <v>16.20966476793573</v>
       </c>
       <c r="L15">
-        <v>8.521334898796928</v>
+        <v>11.94694494447192</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.80653015422493</v>
+        <v>23.19227350076102</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.30193430891602</v>
+        <v>18.69863532319223</v>
       </c>
       <c r="C16">
-        <v>8.530353822544988</v>
+        <v>5.279857773447586</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.924642973291014</v>
+        <v>11.2631367919849</v>
       </c>
       <c r="F16">
-        <v>38.5626456958125</v>
+        <v>47.40588271080023</v>
       </c>
       <c r="G16">
-        <v>2.113967332846816</v>
+        <v>3.73507519415224</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.10552265902385</v>
+        <v>33.76173597584373</v>
       </c>
       <c r="J16">
-        <v>6.0790376041272</v>
+        <v>9.903203230058846</v>
       </c>
       <c r="K16">
-        <v>15.70450300096406</v>
+        <v>16.121670123808</v>
       </c>
       <c r="L16">
-        <v>8.362663762258672</v>
+        <v>11.93578954519415</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.94218043115525</v>
+        <v>23.22855292081625</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.93417759290581</v>
+        <v>18.62065395221688</v>
       </c>
       <c r="C17">
-        <v>8.333579114021408</v>
+        <v>5.212290686517872</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.860888270497665</v>
+        <v>11.26200339757793</v>
       </c>
       <c r="F17">
-        <v>38.13551438141815</v>
+        <v>47.3650730163393</v>
       </c>
       <c r="G17">
-        <v>2.117347593035972</v>
+        <v>3.736175820944964</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.00728409912337</v>
+        <v>33.772072062051</v>
       </c>
       <c r="J17">
-        <v>6.106135862187406</v>
+        <v>9.909128227675767</v>
       </c>
       <c r="K17">
-        <v>15.42134991580944</v>
+        <v>16.06841130668947</v>
       </c>
       <c r="L17">
-        <v>8.265162136898562</v>
+        <v>11.92943550053161</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.02652472391612</v>
+        <v>23.25132333665987</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.72072944075903</v>
+        <v>18.57607167170143</v>
       </c>
       <c r="C18">
-        <v>8.219097111981139</v>
+        <v>5.173171456508756</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.824228169352427</v>
+        <v>11.26148514548958</v>
       </c>
       <c r="F18">
-        <v>37.89113414822694</v>
+        <v>47.34253162718634</v>
       </c>
       <c r="G18">
-        <v>2.119300400686078</v>
+        <v>3.736817532121048</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.9526767014312</v>
+        <v>33.77857116864448</v>
       </c>
       <c r="J18">
-        <v>6.121728776039359</v>
+        <v>9.91257329236737</v>
       </c>
       <c r="K18">
-        <v>15.25730909699287</v>
+        <v>16.03805257007118</v>
       </c>
       <c r="L18">
-        <v>8.209035038923675</v>
+        <v>11.92596150689381</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.07544655454665</v>
+        <v>23.26460940769579</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.64813075484887</v>
+        <v>18.56102466836818</v>
       </c>
       <c r="C19">
-        <v>8.180109432363192</v>
+        <v>5.159883746444624</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.811818309525905</v>
+        <v>11.26133267005978</v>
       </c>
       <c r="F19">
-        <v>37.80861615969016</v>
+        <v>47.33505980411766</v>
       </c>
       <c r="G19">
-        <v>2.119963115100777</v>
+        <v>3.737036294020357</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.93450892255186</v>
+        <v>33.78086678246327</v>
       </c>
       <c r="J19">
-        <v>6.127010000799351</v>
+        <v>9.913746125131521</v>
       </c>
       <c r="K19">
-        <v>15.20156708020972</v>
+        <v>16.0278215473165</v>
       </c>
       <c r="L19">
-        <v>8.190024626683888</v>
+        <v>11.92481638059741</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.09208050202077</v>
+        <v>23.26914034327853</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.97352544811206</v>
+        <v>18.62892751764949</v>
       </c>
       <c r="C20">
-        <v>8.354660346788787</v>
+        <v>5.219510194322511</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.867674257050786</v>
+        <v>11.2621102274881</v>
       </c>
       <c r="F20">
-        <v>38.1808498863766</v>
+        <v>47.36932098138389</v>
       </c>
       <c r="G20">
-        <v>2.11698688468231</v>
+        <v>3.736057761612983</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.01754439160022</v>
+        <v>33.77091441686616</v>
       </c>
       <c r="J20">
-        <v>6.103250650587981</v>
+        <v>9.908493657796594</v>
       </c>
       <c r="K20">
-        <v>15.45161444469026</v>
+        <v>16.07405259957415</v>
       </c>
       <c r="L20">
-        <v>8.275546490353076</v>
+        <v>11.93009321732982</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.0175036720151</v>
+        <v>23.24887981672898</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.04372285476059</v>
+        <v>18.86020563771646</v>
       </c>
       <c r="C21">
-        <v>8.925746826503135</v>
+        <v>5.416681969109445</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.055396024835889</v>
+        <v>11.26631631677293</v>
       </c>
       <c r="F21">
-        <v>39.44679645998605</v>
+        <v>47.49553247704697</v>
       </c>
       <c r="G21">
-        <v>2.107085332751288</v>
+        <v>3.732873329754111</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.3195260999287</v>
+        <v>33.7440978518667</v>
       </c>
       <c r="J21">
-        <v>6.023458044350009</v>
+        <v>9.891289340522997</v>
       </c>
       <c r="K21">
-        <v>16.33904142902155</v>
+        <v>16.23259970258768</v>
       </c>
       <c r="L21">
-        <v>8.562240812486444</v>
+        <v>11.94997567237307</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.77186099604595</v>
+        <v>23.18306568644087</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.72579876000252</v>
+        <v>19.01346935224644</v>
       </c>
       <c r="C22">
-        <v>9.287945826692825</v>
+        <v>5.542964848977498</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.17798053785625</v>
+        <v>11.27024555852757</v>
       </c>
       <c r="F22">
-        <v>40.28522046350501</v>
+        <v>47.58622398357453</v>
       </c>
       <c r="G22">
-        <v>2.100677256119231</v>
+        <v>3.730868743352589</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.53478952164529</v>
+        <v>33.73151155530729</v>
       </c>
       <c r="J22">
-        <v>5.971229544062282</v>
+        <v>9.880373954049372</v>
       </c>
       <c r="K22">
-        <v>16.97730281235813</v>
+        <v>16.33847775764992</v>
       </c>
       <c r="L22">
-        <v>8.748939895625593</v>
+        <v>11.96456106832845</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.61508188571327</v>
+        <v>23.14173284822337</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.36335555203841</v>
+        <v>18.93149108653257</v>
       </c>
       <c r="C23">
-        <v>9.095615070329787</v>
+        <v>5.475814840121185</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.112572876466633</v>
+        <v>11.26804093813692</v>
       </c>
       <c r="F23">
-        <v>39.83674379754454</v>
+        <v>47.53707401628708</v>
       </c>
       <c r="G23">
-        <v>2.104092260598712</v>
+        <v>3.731931641386046</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.41821172384291</v>
+        <v>33.7377768638801</v>
       </c>
       <c r="J23">
-        <v>5.999119291926107</v>
+        <v>9.886169742757053</v>
       </c>
       <c r="K23">
-        <v>16.63869789227859</v>
+        <v>16.28177106017169</v>
       </c>
       <c r="L23">
-        <v>8.649367653151966</v>
+        <v>11.95663189259565</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.69840683846217</v>
+        <v>23.16363937007373</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95574257108706</v>
+        <v>18.62518625585928</v>
       </c>
       <c r="C24">
-        <v>8.34513374363558</v>
+        <v>5.216247104918238</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.86460633111428</v>
+        <v>11.26206151422855</v>
       </c>
       <c r="F24">
-        <v>38.16035001308143</v>
+        <v>47.36739760759284</v>
       </c>
       <c r="G24">
-        <v>2.117149931350229</v>
+        <v>3.736111108363756</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.01289989591641</v>
+        <v>33.77143605397126</v>
       </c>
       <c r="J24">
-        <v>6.104555010389938</v>
+        <v>9.908780426234552</v>
       </c>
       <c r="K24">
-        <v>15.43793574817491</v>
+        <v>16.07150135766018</v>
       </c>
       <c r="L24">
-        <v>8.270851945757599</v>
+        <v>11.92979530571473</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.02158074775699</v>
+        <v>23.24998392439203</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.36427316202422</v>
+        <v>18.30530076029356</v>
       </c>
       <c r="C25">
-        <v>7.485549586354133</v>
+        <v>4.92668034673481</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.597653070009217</v>
+        <v>11.26072621837575</v>
       </c>
       <c r="F25">
-        <v>36.40206538747036</v>
+        <v>47.22001385208929</v>
       </c>
       <c r="G25">
-        <v>2.131568799782723</v>
+        <v>3.74095072639525</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.64765005694568</v>
+        <v>33.82891937758533</v>
       </c>
       <c r="J25">
-        <v>6.21860665343671</v>
+        <v>9.934591961457905</v>
       </c>
       <c r="K25">
-        <v>14.22049007166269</v>
+        <v>15.85528039895518</v>
       </c>
       <c r="L25">
-        <v>7.86098650404701</v>
+        <v>11.90776403364023</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.38579321112016</v>
+        <v>23.35035393215418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_184/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_184/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08032186512941</v>
+        <v>16.13253020053355</v>
       </c>
       <c r="C2">
-        <v>4.707088164900111</v>
+        <v>6.806783071266362</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.26418622786683</v>
+        <v>6.402685091721366</v>
       </c>
       <c r="F2">
-        <v>47.14247703679082</v>
+        <v>35.15385529219405</v>
       </c>
       <c r="G2">
-        <v>3.744802456999608</v>
+        <v>2.142537289196242</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.88940456219572</v>
+        <v>23.43517444459811</v>
       </c>
       <c r="J2">
-        <v>9.954836322397528</v>
+        <v>6.303528616333562</v>
       </c>
       <c r="K2">
-        <v>15.70608465718566</v>
+        <v>13.28867370468201</v>
       </c>
       <c r="L2">
-        <v>11.89756668590153</v>
+        <v>7.559528168084305</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.43051152018387</v>
+        <v>15.66704463523239</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.93516884377031</v>
+        <v>15.26304843621572</v>
       </c>
       <c r="C3">
-        <v>4.55538783772402</v>
+        <v>6.316899890472049</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.2693233596374</v>
+        <v>6.27219159134986</v>
       </c>
       <c r="F3">
-        <v>47.1093776534086</v>
+        <v>34.33904031020199</v>
       </c>
       <c r="G3">
-        <v>3.747594357931122</v>
+        <v>2.150219216107053</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.94169114173044</v>
+        <v>23.32369041073168</v>
       </c>
       <c r="J3">
-        <v>9.969337384346815</v>
+        <v>6.361966457965168</v>
       </c>
       <c r="K3">
-        <v>15.61164198458322</v>
+        <v>12.63754830338789</v>
       </c>
       <c r="L3">
-        <v>11.89444654952093</v>
+        <v>7.356449626322541</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.4887549136079</v>
+        <v>15.86572490968795</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.84988857762897</v>
+        <v>14.71337524096351</v>
       </c>
       <c r="C4">
-        <v>4.461241061494007</v>
+        <v>6.00098488075987</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.27386134642715</v>
+        <v>6.193107931273816</v>
       </c>
       <c r="F4">
-        <v>47.09867620329401</v>
+        <v>33.85486826061184</v>
       </c>
       <c r="G4">
-        <v>3.749398697020055</v>
+        <v>2.155067243124645</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.97935404845763</v>
+        <v>23.27037693998699</v>
       </c>
       <c r="J4">
-        <v>9.978629083806206</v>
+        <v>6.398372169097501</v>
       </c>
       <c r="K4">
-        <v>15.55707617801378</v>
+        <v>12.22922290780448</v>
       </c>
       <c r="L4">
-        <v>11.89441014164147</v>
+        <v>7.232745907518138</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.52645583803323</v>
+        <v>15.99168654816229</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.8161372069183</v>
+        <v>14.48565541904315</v>
       </c>
       <c r="C5">
-        <v>4.422691873472539</v>
+        <v>5.868389878084272</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.27605955736496</v>
+        <v>6.161178451304679</v>
       </c>
       <c r="F5">
-        <v>47.0967383937513</v>
+        <v>33.66174034010033</v>
       </c>
       <c r="G5">
-        <v>3.750156713615337</v>
+        <v>2.157077069912796</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.99609785204241</v>
+        <v>23.25232463483854</v>
       </c>
       <c r="J5">
-        <v>9.982513446563143</v>
+        <v>6.413351722992151</v>
       </c>
       <c r="K5">
-        <v>15.53571996263454</v>
+        <v>12.0608932758307</v>
       </c>
       <c r="L5">
-        <v>11.89486928576165</v>
+        <v>7.182645790340628</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.54230767187784</v>
+        <v>16.04401489264141</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.81059424433713</v>
+        <v>14.4476261891943</v>
       </c>
       <c r="C6">
-        <v>4.416281805820096</v>
+        <v>5.846138098565288</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.27644567146014</v>
+        <v>6.155895636274806</v>
       </c>
       <c r="F6">
-        <v>47.09656305005133</v>
+        <v>33.62992723577252</v>
       </c>
       <c r="G6">
-        <v>3.750283957027867</v>
+        <v>2.15741290059411</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.99896239399104</v>
+        <v>23.24954501761426</v>
       </c>
       <c r="J6">
-        <v>9.983164366623075</v>
+        <v>6.415848096099444</v>
       </c>
       <c r="K6">
-        <v>15.5322274502718</v>
+        <v>12.03283237012739</v>
       </c>
       <c r="L6">
-        <v>11.8949741906536</v>
+        <v>7.174347289791792</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.54496937765151</v>
+        <v>16.05276425575809</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.84942929773632</v>
+        <v>14.71031883803111</v>
       </c>
       <c r="C7">
-        <v>4.460721823461134</v>
+        <v>5.999212344663215</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.27388957814028</v>
+        <v>6.19267606532217</v>
       </c>
       <c r="F7">
-        <v>47.09864025455467</v>
+        <v>33.85224660549723</v>
       </c>
       <c r="G7">
-        <v>3.749408827746469</v>
+        <v>2.155094208268526</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.9795742122263</v>
+        <v>23.2701187834316</v>
       </c>
       <c r="J7">
-        <v>9.97868107274256</v>
+        <v>6.39857359050759</v>
       </c>
       <c r="K7">
-        <v>15.55678457407014</v>
+        <v>12.22696027884627</v>
       </c>
       <c r="L7">
-        <v>11.89441441298232</v>
+        <v>7.232068900509812</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.52666764290874</v>
+        <v>15.99238822563303</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.02949639445668</v>
+        <v>15.83614902853654</v>
       </c>
       <c r="C8">
-        <v>4.655029513673917</v>
+        <v>6.64097720317385</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.26567091934201</v>
+        <v>6.357496687047333</v>
       </c>
       <c r="F8">
-        <v>47.12907001084476</v>
+        <v>34.86963327617542</v>
       </c>
       <c r="G8">
-        <v>3.745746450624315</v>
+        <v>2.145159513255275</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.90627816035636</v>
+        <v>23.39351280846596</v>
       </c>
       <c r="J8">
-        <v>9.959755977528728</v>
+        <v>6.323576576068899</v>
       </c>
       <c r="K8">
-        <v>15.67282245660197</v>
+        <v>13.0660522910129</v>
       </c>
       <c r="L8">
-        <v>11.89610169261604</v>
+        <v>7.489338057911617</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.45019181103023</v>
+        <v>15.73472459190902</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.41151577947544</v>
+        <v>17.90993964407135</v>
       </c>
       <c r="C9">
-        <v>5.025347674606017</v>
+        <v>7.78204767081254</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.26048869337326</v>
+        <v>6.687411480633662</v>
       </c>
       <c r="F9">
-        <v>47.26486725504513</v>
+        <v>36.98740118372331</v>
       </c>
       <c r="G9">
-        <v>3.739275924723443</v>
+        <v>2.126661192923659</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.80673107603165</v>
+        <v>23.76155501794137</v>
       </c>
       <c r="J9">
-        <v>9.925705846798108</v>
+        <v>6.180083155833324</v>
       </c>
       <c r="K9">
-        <v>15.92661929441236</v>
+        <v>14.63634550393427</v>
       </c>
       <c r="L9">
-        <v>11.9142542870765</v>
+        <v>7.999124054913043</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.31557469636355</v>
+        <v>15.26105798425531</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.70756918467477</v>
+        <v>19.34363604436657</v>
       </c>
       <c r="C10">
-        <v>5.287531832254872</v>
+        <v>8.552632534243966</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.26328419725585</v>
+        <v>6.931918485626075</v>
       </c>
       <c r="F10">
-        <v>47.41066528976499</v>
+        <v>38.61155783598753</v>
       </c>
       <c r="G10">
-        <v>3.734950776724386</v>
+        <v>2.113582740206837</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.76063165769536</v>
+        <v>24.11699278802034</v>
       </c>
       <c r="J10">
-        <v>9.902532174420783</v>
+        <v>6.075945962746506</v>
       </c>
       <c r="K10">
-        <v>16.12778387662159</v>
+        <v>15.73665176777518</v>
       </c>
       <c r="L10">
-        <v>11.93653901061562</v>
+        <v>8.373782090685683</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.22598027287936</v>
+        <v>14.93261195936976</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.84509145547098</v>
+        <v>19.97538538419231</v>
       </c>
       <c r="C11">
-        <v>5.404051502486851</v>
+        <v>8.889393719006716</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.2659748164478</v>
+        <v>7.043235065954145</v>
       </c>
       <c r="F11">
-        <v>47.4868744691413</v>
+        <v>39.36411456357221</v>
       </c>
       <c r="G11">
-        <v>3.733075202861867</v>
+        <v>2.107723043100972</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.74554768871757</v>
+        <v>24.29893077425302</v>
       </c>
       <c r="J11">
-        <v>9.892384966339625</v>
+        <v>6.028630838547695</v>
       </c>
       <c r="K11">
-        <v>16.22219152416781</v>
+        <v>16.27484083880369</v>
       </c>
       <c r="L11">
-        <v>11.94859429184375</v>
+        <v>8.543698942954853</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.1872323465703</v>
+        <v>14.78756111060626</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.89753368692933</v>
+        <v>20.21163633462896</v>
       </c>
       <c r="C12">
-        <v>5.447735259319284</v>
+        <v>9.015016722957711</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.26719631706322</v>
+        <v>7.085372541043817</v>
       </c>
       <c r="F12">
-        <v>47.51714209235722</v>
+        <v>39.65099063401258</v>
       </c>
       <c r="G12">
-        <v>3.732378115233296</v>
+        <v>2.10551511163849</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.74068317690902</v>
+        <v>24.37088563224319</v>
       </c>
       <c r="J12">
-        <v>9.888598846179571</v>
+        <v>6.010701849512185</v>
       </c>
       <c r="K12">
-        <v>16.25833131838744</v>
+        <v>16.49658741687647</v>
       </c>
       <c r="L12">
-        <v>11.9534325628424</v>
+        <v>8.607929701990786</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.17284770008585</v>
+        <v>14.73327709293573</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.88622375733181</v>
+        <v>20.16088824594569</v>
       </c>
       <c r="C13">
-        <v>5.438347393268539</v>
+        <v>8.988044760460564</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.2669242568435</v>
+        <v>7.076298601600445</v>
       </c>
       <c r="F13">
-        <v>47.51056097541106</v>
+        <v>39.58912317301827</v>
       </c>
       <c r="G13">
-        <v>3.732527661750904</v>
+        <v>2.105990171622315</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.74169313366737</v>
+        <v>24.35525043476996</v>
       </c>
       <c r="J13">
-        <v>9.889411751523241</v>
+        <v>6.014564042196803</v>
       </c>
       <c r="K13">
-        <v>16.25053107192362</v>
+        <v>16.44900265494779</v>
       </c>
       <c r="L13">
-        <v>11.9523784474268</v>
+        <v>8.594102033402013</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.17593287495378</v>
+        <v>14.74493918966256</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.84939883549428</v>
+        <v>19.9948817066856</v>
       </c>
       <c r="C14">
-        <v>5.407654441276998</v>
+        <v>8.899766415572667</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.26607125760911</v>
+        <v>7.046702208533616</v>
       </c>
       <c r="F14">
-        <v>47.48933644660693</v>
+        <v>39.38767829973808</v>
       </c>
       <c r="G14">
-        <v>3.733017589878017</v>
+        <v>2.107541186099302</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.74513049369992</v>
+        <v>24.30478838183006</v>
       </c>
       <c r="J14">
-        <v>9.892072351396781</v>
+        <v>6.027156167688843</v>
       </c>
       <c r="K14">
-        <v>16.2251571137456</v>
+        <v>16.29316187031364</v>
       </c>
       <c r="L14">
-        <v>11.94898687956116</v>
+        <v>8.548985710434751</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.18604313707732</v>
+        <v>14.7830821218229</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.82688880584019</v>
+        <v>19.89280934480785</v>
       </c>
       <c r="C15">
-        <v>5.388795622409759</v>
+        <v>8.845448300003653</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.26557511479194</v>
+        <v>7.028570724117776</v>
       </c>
       <c r="F15">
-        <v>47.47651888535918</v>
+        <v>39.26453307112457</v>
       </c>
       <c r="G15">
-        <v>3.733319395588709</v>
+        <v>2.108492601682779</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.74734636316845</v>
+        <v>24.2742817105294</v>
       </c>
       <c r="J15">
-        <v>9.893709381549559</v>
+        <v>6.034867046111894</v>
       </c>
       <c r="K15">
-        <v>16.20966476793573</v>
+        <v>16.19719851721289</v>
       </c>
       <c r="L15">
-        <v>11.94694494447192</v>
+        <v>8.521334898796939</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.19227350076102</v>
+        <v>14.80653015422494</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.69863532319223</v>
+        <v>19.30193430891602</v>
       </c>
       <c r="C16">
-        <v>5.279857773447586</v>
+        <v>8.530353822545027</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.2631367919849</v>
+        <v>6.924642973290976</v>
       </c>
       <c r="F16">
-        <v>47.40588271080023</v>
+        <v>38.56264569581246</v>
       </c>
       <c r="G16">
-        <v>3.73507519415224</v>
+        <v>2.113967332846419</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.76173597584373</v>
+        <v>24.1055226590238</v>
       </c>
       <c r="J16">
-        <v>9.903203230058846</v>
+        <v>6.079037604127134</v>
       </c>
       <c r="K16">
-        <v>16.121670123808</v>
+        <v>15.70450300096405</v>
       </c>
       <c r="L16">
-        <v>11.93578954519415</v>
+        <v>8.36266376225865</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.22855292081625</v>
+        <v>14.94218043115519</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.62065395221688</v>
+        <v>18.93417759290581</v>
       </c>
       <c r="C17">
-        <v>5.212290686517872</v>
+        <v>8.333579114021349</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.26200339757793</v>
+        <v>6.860888270497704</v>
       </c>
       <c r="F17">
-        <v>47.3650730163393</v>
+        <v>38.13551438141802</v>
       </c>
       <c r="G17">
-        <v>3.736175820944964</v>
+        <v>2.117347593035706</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.772072062051</v>
+        <v>24.00728409912318</v>
       </c>
       <c r="J17">
-        <v>9.909128227675767</v>
+        <v>6.106135862187441</v>
       </c>
       <c r="K17">
-        <v>16.06841130668947</v>
+        <v>15.42134991580943</v>
       </c>
       <c r="L17">
-        <v>11.92943550053161</v>
+        <v>8.265162136898576</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.25132333665987</v>
+        <v>15.02652472391601</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.57607167170143</v>
+        <v>18.72072944075908</v>
       </c>
       <c r="C18">
-        <v>5.173171456508756</v>
+        <v>8.219097111981121</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.26148514548958</v>
+        <v>6.82422816935251</v>
       </c>
       <c r="F18">
-        <v>47.34253162718634</v>
+        <v>37.89113414822695</v>
       </c>
       <c r="G18">
-        <v>3.736817532121048</v>
+        <v>2.119300400686215</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.77857116864448</v>
+        <v>23.95267670143114</v>
       </c>
       <c r="J18">
-        <v>9.91257329236737</v>
+        <v>6.121728776039294</v>
       </c>
       <c r="K18">
-        <v>16.03805257007118</v>
+        <v>15.25730909699287</v>
       </c>
       <c r="L18">
-        <v>11.92596150689381</v>
+        <v>8.209035038923689</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.26460940769579</v>
+        <v>15.07544655454657</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.56102466836818</v>
+        <v>18.64813075484882</v>
       </c>
       <c r="C19">
-        <v>5.159883746444624</v>
+        <v>8.180109432363004</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.26133267005978</v>
+        <v>6.811818309525994</v>
       </c>
       <c r="F19">
-        <v>47.33505980411766</v>
+        <v>37.80861615969008</v>
       </c>
       <c r="G19">
-        <v>3.737036294020357</v>
+        <v>2.119963115100775</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.78086678246327</v>
+        <v>23.93450892255172</v>
       </c>
       <c r="J19">
-        <v>9.913746125131521</v>
+        <v>6.127010000799349</v>
       </c>
       <c r="K19">
-        <v>16.0278215473165</v>
+        <v>15.20156708020969</v>
       </c>
       <c r="L19">
-        <v>11.92481638059741</v>
+        <v>8.190024626683961</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.26914034327853</v>
+        <v>15.09208050202078</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.62892751764949</v>
+        <v>18.97352544811206</v>
       </c>
       <c r="C20">
-        <v>5.219510194322511</v>
+        <v>8.354660346788972</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.2621102274881</v>
+        <v>6.867674257050887</v>
       </c>
       <c r="F20">
-        <v>47.36932098138389</v>
+        <v>38.18084988637656</v>
       </c>
       <c r="G20">
-        <v>3.736057761612983</v>
+        <v>2.11698688468271</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.77091441686616</v>
+        <v>24.01754439160009</v>
       </c>
       <c r="J20">
-        <v>9.908493657796594</v>
+        <v>6.103250650587845</v>
       </c>
       <c r="K20">
-        <v>16.07405259957415</v>
+        <v>15.45161444469024</v>
       </c>
       <c r="L20">
-        <v>11.93009321732982</v>
+        <v>8.275546490353054</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.24887981672898</v>
+        <v>15.01750367201501</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.86020563771646</v>
+        <v>20.0437228547606</v>
       </c>
       <c r="C21">
-        <v>5.416681969109445</v>
+        <v>8.925746826503147</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.26631631677293</v>
+        <v>7.055396024835844</v>
       </c>
       <c r="F21">
-        <v>47.49553247704697</v>
+        <v>39.44679645998622</v>
       </c>
       <c r="G21">
-        <v>3.732873329754111</v>
+        <v>2.107085332751286</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.7440978518667</v>
+        <v>24.31952609992892</v>
       </c>
       <c r="J21">
-        <v>9.891289340522997</v>
+        <v>6.023458044350042</v>
       </c>
       <c r="K21">
-        <v>16.23259970258768</v>
+        <v>16.33904142902147</v>
       </c>
       <c r="L21">
-        <v>11.94997567237307</v>
+        <v>8.562240812486438</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.18306568644087</v>
+        <v>14.77186099604604</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.01346935224644</v>
+        <v>20.72579876000253</v>
       </c>
       <c r="C22">
-        <v>5.542964848977498</v>
+        <v>9.287945826692869</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.27024555852757</v>
+        <v>7.177980537856249</v>
       </c>
       <c r="F22">
-        <v>47.58622398357453</v>
+        <v>40.28522046350512</v>
       </c>
       <c r="G22">
-        <v>3.730868743352589</v>
+        <v>2.100677256119498</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.73151155530729</v>
+        <v>24.53478952164547</v>
       </c>
       <c r="J22">
-        <v>9.880373954049372</v>
+        <v>5.971229544062351</v>
       </c>
       <c r="K22">
-        <v>16.33847775764992</v>
+        <v>16.9773028123581</v>
       </c>
       <c r="L22">
-        <v>11.96456106832845</v>
+        <v>8.748939895625583</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.14173284822337</v>
+        <v>14.61508188571332</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93149108653257</v>
+        <v>20.36335555203841</v>
       </c>
       <c r="C23">
-        <v>5.475814840121185</v>
+        <v>9.095615070329757</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.26804093813692</v>
+        <v>7.112572876466558</v>
       </c>
       <c r="F23">
-        <v>47.53707401628708</v>
+        <v>39.83674379754457</v>
       </c>
       <c r="G23">
-        <v>3.731931641386046</v>
+        <v>2.104092260598715</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.7377768638801</v>
+        <v>24.41821172384305</v>
       </c>
       <c r="J23">
-        <v>9.886169742757053</v>
+        <v>5.999119291926206</v>
       </c>
       <c r="K23">
-        <v>16.28177106017169</v>
+        <v>16.63869789227852</v>
       </c>
       <c r="L23">
-        <v>11.95663189259565</v>
+        <v>8.649367653151907</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.16363937007373</v>
+        <v>14.69840683846225</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62518625585928</v>
+        <v>18.95574257108705</v>
       </c>
       <c r="C24">
-        <v>5.216247104918238</v>
+        <v>8.345133743635522</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.26206151422855</v>
+        <v>6.864606331114316</v>
       </c>
       <c r="F24">
-        <v>47.36739760759284</v>
+        <v>38.16035001308147</v>
       </c>
       <c r="G24">
-        <v>3.736111108363756</v>
+        <v>2.117149931350091</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.77143605397126</v>
+        <v>24.01289989591632</v>
       </c>
       <c r="J24">
-        <v>9.908780426234552</v>
+        <v>6.104555010389807</v>
       </c>
       <c r="K24">
-        <v>16.07150135766018</v>
+        <v>15.43793574817489</v>
       </c>
       <c r="L24">
-        <v>11.92979530571473</v>
+        <v>8.270851945757611</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.24998392439203</v>
+        <v>15.02158074775696</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.30530076029356</v>
+        <v>17.36427316202423</v>
       </c>
       <c r="C25">
-        <v>4.92668034673481</v>
+        <v>7.48554958635414</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.26072621837575</v>
+        <v>6.597653070009168</v>
       </c>
       <c r="F25">
-        <v>47.22001385208929</v>
+        <v>36.40206538747034</v>
       </c>
       <c r="G25">
-        <v>3.74095072639525</v>
+        <v>2.131568799782589</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.82891937758533</v>
+        <v>23.64765005694573</v>
       </c>
       <c r="J25">
-        <v>9.934591961457905</v>
+        <v>6.218606653436677</v>
       </c>
       <c r="K25">
-        <v>15.85528039895518</v>
+        <v>14.22049007166269</v>
       </c>
       <c r="L25">
-        <v>11.90776403364023</v>
+        <v>7.860986504046939</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.35035393215418</v>
+        <v>15.38579321112017</v>
       </c>
       <c r="O25">
         <v>0</v>
